--- a/data/hotels_by_city/Houston/Houston_shard_239.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_239.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="256">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d107769-Reviews-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Fairfield-Inn-Suites-Houston-I-45-North.h84585.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,645 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r573615246-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107769</t>
+  </si>
+  <si>
+    <t>573615246</t>
+  </si>
+  <si>
+    <t>04/15/2018</t>
+  </si>
+  <si>
+    <t>Good location for a budget hotel</t>
+  </si>
+  <si>
+    <t>Close to Spring, not far from Woodlands. Front desk are nice, rooms are clean and slightly upgraded with elite status. Could be a little busy with an event, especially for the kids to play at the pool. Overall a good budget hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Shane J, Manager at Fairfield Inn &amp; Suites Houston I-45 North, responded to this reviewResponded June 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2018</t>
+  </si>
+  <si>
+    <t>Close to Spring, not far from Woodlands. Front desk are nice, rooms are clean and slightly upgraded with elite status. Could be a little busy with an event, especially for the kids to play at the pool. Overall a good budget hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r571139304-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>571139304</t>
+  </si>
+  <si>
+    <t>04/04/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 minutes to check in </t>
+  </si>
+  <si>
+    <t>Probably the worst Fairfield innI have ever stayed in .The check in girl was extremely rude and incompetent .No one was at the desk but her personal call was more important than me checking in after an 8 hour flight .In a street with several hotels - I would never stay here again Customer service and competent polite staff are lacking here !MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Shane J, General Manager at Fairfield Inn &amp; Suites Houston I-45 North, responded to this reviewResponded April 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2018</t>
+  </si>
+  <si>
+    <t>Probably the worst Fairfield innI have ever stayed in .The check in girl was extremely rude and incompetent .No one was at the desk but her personal call was more important than me checking in after an 8 hour flight .In a street with several hotels - I would never stay here again Customer service and competent polite staff are lacking here !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r516489926-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>516489926</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t>Bridgestone Training Retreat</t>
+  </si>
+  <si>
+    <t>Taylor who worked the front desk tonight is amazing!!! She gave great customer service! I was dehydrated and in desperate need of water and she hooked me up with a cold bottle instantly! Overall service here has been great but Taylor is definitely my favorite person!!! Make sure she knows how much I appreciate her! And give her a raise! MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Taylor who worked the front desk tonight is amazing!!! She gave great customer service! I was dehydrated and in desperate need of water and she hooked me up with a cold bottle instantly! Overall service here has been great but Taylor is definitely my favorite person!!! Make sure she knows how much I appreciate her! And give her a raise! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r499274569-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>499274569</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>Stay was good enough</t>
+  </si>
+  <si>
+    <t>Fair amount of parking and the hotel was clean. The beds and pillows we're not very comfortable but was good enough for a one night stay. The complimentary breakfast was ok, nothing special but at least there were a few options. Sausage was good and the staff was friendly, but they were out of scrambled eggs and milk for some time. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston I-45 North, responded to this reviewResponded July 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2017</t>
+  </si>
+  <si>
+    <t>Fair amount of parking and the hotel was clean. The beds and pillows we're not very comfortable but was good enough for a one night stay. The complimentary breakfast was ok, nothing special but at least there were a few options. Sausage was good and the staff was friendly, but they were out of scrambled eggs and milk for some time. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r488288105-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488288105</t>
+  </si>
+  <si>
+    <t>05/27/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glad to be home </t>
+  </si>
+  <si>
+    <t>Awful. Roach crawled across my foot. Coffee never ready. Was adequate in terms of cleanliness. Front desk staff rude and mixed things up. One guest was given keys to an occupied room. Keys didn't work to several rooms. Got billed for 2 items on marketplace and I never bought a thing. I arranged this for a group of business people and I expected Marriott to provide quality service but that was not the case in this instance. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston I-45 North, responded to this reviewResponded May 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2017</t>
+  </si>
+  <si>
+    <t>Awful. Roach crawled across my foot. Coffee never ready. Was adequate in terms of cleanliness. Front desk staff rude and mixed things up. One guest was given keys to an occupied room. Keys didn't work to several rooms. Got billed for 2 items on marketplace and I never bought a thing. I arranged this for a group of business people and I expected Marriott to provide quality service but that was not the case in this instance. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r482783973-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>482783973</t>
+  </si>
+  <si>
+    <t>05/08/2017</t>
+  </si>
+  <si>
+    <t>Decent stay, weak follow-up</t>
+  </si>
+  <si>
+    <t>As a Marriott Rewards member, I am accustomed to having points for my stays appear on my account within about 3-5 days after my stay. For my stay in mid April, the follow-up bill showed up in my email more than two weeks later, and then the points posted to my account about three weeks later. Not impressed with that. For the hotel, it's conveniently on a side road a block away from the FM 1960 and I-45 intersection, making it convenient to access without highway noise. The room was clean, the bed comfortable and the included breakfast acceptable. Balances out to an average evaluation.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston I-45 North, responded to this reviewResponded May 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2017</t>
+  </si>
+  <si>
+    <t>As a Marriott Rewards member, I am accustomed to having points for my stays appear on my account within about 3-5 days after my stay. For my stay in mid April, the follow-up bill showed up in my email more than two weeks later, and then the points posted to my account about three weeks later. Not impressed with that. For the hotel, it's conveniently on a side road a block away from the FM 1960 and I-45 intersection, making it convenient to access without highway noise. The room was clean, the bed comfortable and the included breakfast acceptable. Balances out to an average evaluation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r392578437-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>392578437</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>Mold</t>
+  </si>
+  <si>
+    <t>Stayed this week for one night with my family. Smell in my room was terrible. We got a basic room without a microwave or a fridge. I expected a better room. As a Silver Member Elite I'm really disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston I-45 North, responded to this reviewResponded July 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2016</t>
+  </si>
+  <si>
+    <t>Stayed this week for one night with my family. Smell in my room was terrible. We got a basic room without a microwave or a fridge. I expected a better room. As a Silver Member Elite I'm really disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r391918154-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>391918154</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t>Outdated</t>
+  </si>
+  <si>
+    <t>The was the first suites hotel that I have stayed in without a microwave or a fridge. The service was okay but the hotel should remove the word suites from its name of step it up.  The ac unit was very loud and I seen a few spider webs in the corner of the floor. The full breakfast was very good and the attendant was very attentive.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston I-45 North, responded to this reviewResponded July 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2016</t>
+  </si>
+  <si>
+    <t>The was the first suites hotel that I have stayed in without a microwave or a fridge. The service was okay but the hotel should remove the word suites from its name of step it up.  The ac unit was very loud and I seen a few spider webs in the corner of the floor. The full breakfast was very good and the attendant was very attentive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r381949953-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>381949953</t>
+  </si>
+  <si>
+    <t>06/12/2016</t>
+  </si>
+  <si>
+    <t>Love this place.</t>
+  </si>
+  <si>
+    <t>As always I stay at Marriott property every chance I get, the main reason, the Hotels are always clean, customer service second to none, bed are always comfortable, It's always somewhere that's worth every penny.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r347629732-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>347629732</t>
+  </si>
+  <si>
+    <t>02/14/2016</t>
+  </si>
+  <si>
+    <t>1 night stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is our 2nd time stay at this hotel. It's in a nice area and the hotel is nice. Nothing special, just a clean place to spend the night. The rooms are a good size. They do offer a continental breakfast. It's right off of I-45. We would stay here again. </t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r336265006-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>336265006</t>
+  </si>
+  <si>
+    <t>12/31/2015</t>
+  </si>
+  <si>
+    <t>Xmas stay</t>
+  </si>
+  <si>
+    <t>Friendly, clean well laid out rooms. Friendly staff greeted us with water bottles and cookies.after four hour drive in torrential rain. Great price and convenient to Spring. Short on electrical outlets and spa was too hot ~105 and unusable.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r331599541-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>331599541</t>
+  </si>
+  <si>
+    <t>12/09/2015</t>
+  </si>
+  <si>
+    <t>Clean, Spacious rooms, and Friendly Atmosphere!</t>
+  </si>
+  <si>
+    <t>The room we had was fantastic!   A special "Thank You" to Allen.........who not only greeted us with such a warm and friendly welcome upon our arrival, but he also went "over and above" what I had expected.  When I asked him if he had heard of Mainstreet America up in Spring, Texas and knew about where it was from the hotel, he confessed and said "I'm not from around here, but I will google it for you guys and have you that info in about 5 minutes, when you come back downstairs, I will have it"..........and he did!!!  The breakfast buffet was really great   The only drawback to this Fairfield Inn is the locale.........getting in and out from the freeway.   Other than that(which wasn't really a problem), we had a wonderful stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room we had was fantastic!   A special "Thank You" to Allen.........who not only greeted us with such a warm and friendly welcome upon our arrival, but he also went "over and above" what I had expected.  When I asked him if he had heard of Mainstreet America up in Spring, Texas and knew about where it was from the hotel, he confessed and said "I'm not from around here, but I will google it for you guys and have you that info in about 5 minutes, when you come back downstairs, I will have it"..........and he did!!!  The breakfast buffet was really great   The only drawback to this Fairfield Inn is the locale.........getting in and out from the freeway.   Other than that(which wasn't really a problem), we had a wonderful stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r274903493-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>274903493</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Very Nice Stay</t>
+  </si>
+  <si>
+    <t>Great staff and hotel. Everything is clean and well maintained. I felt like I was at a higher-end brand.I stayed for a four day conference. I had a single room with king sized bed. The room was well appointed. Brd was very comfortable.  They serve food on certain nights and hot breakfast in morning, which helps when you want to stay close.I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r268344081-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>268344081</t>
+  </si>
+  <si>
+    <t>04/27/2015</t>
+  </si>
+  <si>
+    <t>I notified the front desk of the mold smell in my room. They sent a maintenance man to clean my coils in the A/C. It helped for a day. I stayed for 8 days. I'm really disappointed in marriott. The cleaning staff did an excellent job!! I suggest they find there mold problems!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r260874869-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260874869</t>
+  </si>
+  <si>
+    <t>03/21/2015</t>
+  </si>
+  <si>
+    <t>Great moderate hotel</t>
+  </si>
+  <si>
+    <t>Stayed here overnight with my family on the way to cruise out of Galveston. Clean rooms, good breakfast and nice small indoor pool for the kids. Convenient to shopping and restaraunts. Very helpful and friendly staff.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r242394335-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>242394335</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Great stay hotel was very. Clean staff was friendly nice stay would stay again breakfast so_so got tried eating the same thing over our four day stay And ants in the trash can other then. That lovely hotel ,could see myself in the floors very Clean,</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r242137883-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>242137883</t>
+  </si>
+  <si>
+    <t>11/30/2014</t>
+  </si>
+  <si>
+    <t>Basic, Clean Accommodations</t>
+  </si>
+  <si>
+    <t>I lodged here between 11/26 and 11/30 while visiting family in Houston.  The check-in and out process was easy.  The room was basic and clean.  My daughter had an incident with an unclean towel, however, I think this was an anomaly as everything else was extremely clean.  I did use the fitness center, which had weights, two treadmills and an elliptical machine.  The equipment was new.  There were plenty of clean towels, disinfectant wipes to clean machines after use and water.  The fitness center was very clean.  I don't have an issue with the hotel's location.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston I-45 North, responded to this reviewResponded December 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2014</t>
+  </si>
+  <si>
+    <t>I lodged here between 11/26 and 11/30 while visiting family in Houston.  The check-in and out process was easy.  The room was basic and clean.  My daughter had an incident with an unclean towel, however, I think this was an anomaly as everything else was extremely clean.  I did use the fitness center, which had weights, two treadmills and an elliptical machine.  The equipment was new.  There were plenty of clean towels, disinfectant wipes to clean machines after use and water.  The fitness center was very clean.  I don't have an issue with the hotel's location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r234621000-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>234621000</t>
+  </si>
+  <si>
+    <t>10/15/2014</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>We made reservations at the Fairfield  Inn Airport facility and changed to this one when we discovered we were closer to our venue at the Fairfield I-45 location.  I am glad we did as we were less than five minutes away from Ashton Gardens, where we needed to be.  The only drawback was the walls were too thin and we could hear talking in the hallway as our room was near the elevator.   Our room was clean and a similar standard to other hotels of this class.  Breakfast was included in our very reasonable room rate and I considered it a step above with fresh scrambled eggs and boiled eggs (as opposed to pre- processed eggs), waffles, a change of meat daily, fresh fruits, yogurts, and the usual breakfast offerings.    There is also an indoor pool and a hot tub.  If I had not been so busy, I would have definitely taken a dip.    One day it rained cats and dogs and being able to reach my car via the exterior pool door leading to the back lot was quick and easy.  The hotel was immaculate and clean throughout and the staff was very helpful, lending me scissors --not once but twice, giving me directions and facilitating our reservation change at the last minute, even though they were full!   Wifi in our room worked well with no problems after signing in.  Both computer and printer worked like a dream in...We made reservations at the Fairfield  Inn Airport facility and changed to this one when we discovered we were closer to our venue at the Fairfield I-45 location.  I am glad we did as we were less than five minutes away from Ashton Gardens, where we needed to be.  The only drawback was the walls were too thin and we could hear talking in the hallway as our room was near the elevator.   Our room was clean and a similar standard to other hotels of this class.  Breakfast was included in our very reasonable room rate and I considered it a step above with fresh scrambled eggs and boiled eggs (as opposed to pre- processed eggs), waffles, a change of meat daily, fresh fruits, yogurts, and the usual breakfast offerings.    There is also an indoor pool and a hot tub.  If I had not been so busy, I would have definitely taken a dip.    One day it rained cats and dogs and being able to reach my car via the exterior pool door leading to the back lot was quick and easy.  The hotel was immaculate and clean throughout and the staff was very helpful, lending me scissors --not once but twice, giving me directions and facilitating our reservation change at the last minute, even though they were full!   Wifi in our room worked well with no problems after signing in.  Both computer and printer worked like a dream in preparing much needed documents for international trips.   The floors actually gleamed and the carpet was very clean and bright.   I would stay here again and I definitely recommend it to others.  Be sure to sign up for their elite status to receive water in a goodie bag!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>We made reservations at the Fairfield  Inn Airport facility and changed to this one when we discovered we were closer to our venue at the Fairfield I-45 location.  I am glad we did as we were less than five minutes away from Ashton Gardens, where we needed to be.  The only drawback was the walls were too thin and we could hear talking in the hallway as our room was near the elevator.   Our room was clean and a similar standard to other hotels of this class.  Breakfast was included in our very reasonable room rate and I considered it a step above with fresh scrambled eggs and boiled eggs (as opposed to pre- processed eggs), waffles, a change of meat daily, fresh fruits, yogurts, and the usual breakfast offerings.    There is also an indoor pool and a hot tub.  If I had not been so busy, I would have definitely taken a dip.    One day it rained cats and dogs and being able to reach my car via the exterior pool door leading to the back lot was quick and easy.  The hotel was immaculate and clean throughout and the staff was very helpful, lending me scissors --not once but twice, giving me directions and facilitating our reservation change at the last minute, even though they were full!   Wifi in our room worked well with no problems after signing in.  Both computer and printer worked like a dream in...We made reservations at the Fairfield  Inn Airport facility and changed to this one when we discovered we were closer to our venue at the Fairfield I-45 location.  I am glad we did as we were less than five minutes away from Ashton Gardens, where we needed to be.  The only drawback was the walls were too thin and we could hear talking in the hallway as our room was near the elevator.   Our room was clean and a similar standard to other hotels of this class.  Breakfast was included in our very reasonable room rate and I considered it a step above with fresh scrambled eggs and boiled eggs (as opposed to pre- processed eggs), waffles, a change of meat daily, fresh fruits, yogurts, and the usual breakfast offerings.    There is also an indoor pool and a hot tub.  If I had not been so busy, I would have definitely taken a dip.    One day it rained cats and dogs and being able to reach my car via the exterior pool door leading to the back lot was quick and easy.  The hotel was immaculate and clean throughout and the staff was very helpful, lending me scissors --not once but twice, giving me directions and facilitating our reservation change at the last minute, even though they were full!   Wifi in our room worked well with no problems after signing in.  Both computer and printer worked like a dream in preparing much needed documents for international trips.   The floors actually gleamed and the carpet was very clean and bright.   I would stay here again and I definitely recommend it to others.  Be sure to sign up for their elite status to receive water in a goodie bag!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r221058204-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>221058204</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t>ONCE AGAIN MARRIOTT IS ON TOP</t>
+  </si>
+  <si>
+    <t>I have found that Marriott and its chain of hotels is usually the way to go.  I stay at others, to include Hilton, Best Western and Wyndham properties, but have found Marriott (and Fairfield specifically) to be very good.  Nothing different here.  Clean room, very comfortable bed, and great shower.  Didn't eat the breakfast this time as we were meeting people for breakfast but otherwise very good place to stay.  Getting in and out (and on and off I-45) a bit of a hassle but otherwise very good.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r216851064-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>216851064</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>This was a last minute trip I decided to take and chose this property because of its proximity to where I needed to be while in town. It is right off I-45 so it's very easily accessible. I was checked in by a fairly new employee so she had help from a supervisor. They were both very nice. The first time I went up, the keys didn't work. The second time I went up and my keys didn't work, the supervisor happened to be on my floor so she let me in. When I came down to go out, Crystal was very helpful in making sure that my keys worked. The room was in great condition. Clean. Had a mini-fridge. The outlets were a little inconvenient, I had to unplug a lamp to plug in all the things I need to charge. Probably a personal problem and not the hotel's. I was so busy I didn't get a chance to take advantage of any of the amenities. They had an indoor pool that designated adult hours until midnight which was pretty cool. The breakfast had a sufficient amount of low-carb options so I give the property a big thumbs up for that. I would definitely consider staying at this place again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>This was a last minute trip I decided to take and chose this property because of its proximity to where I needed to be while in town. It is right off I-45 so it's very easily accessible. I was checked in by a fairly new employee so she had help from a supervisor. They were both very nice. The first time I went up, the keys didn't work. The second time I went up and my keys didn't work, the supervisor happened to be on my floor so she let me in. When I came down to go out, Crystal was very helpful in making sure that my keys worked. The room was in great condition. Clean. Had a mini-fridge. The outlets were a little inconvenient, I had to unplug a lamp to plug in all the things I need to charge. Probably a personal problem and not the hotel's. I was so busy I didn't get a chance to take advantage of any of the amenities. They had an indoor pool that designated adult hours until midnight which was pretty cool. The breakfast had a sufficient amount of low-carb options so I give the property a big thumbs up for that. I would definitely consider staying at this place again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r216312898-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>216312898</t>
+  </si>
+  <si>
+    <t>07/19/2014</t>
+  </si>
+  <si>
+    <t>Quite average for its category but nothing memorable</t>
+  </si>
+  <si>
+    <t>I don't have many memories of this hotel - either good or bad except for one: for some reason this hotel was dead packed in mid-February. The service, rooms and breakfast and location were Ok but not outstanding. The nearby interstate didn't bother me too much - it's far enough to not create too much noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston I-45 North, responded to this reviewResponded July 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 22, 2014</t>
+  </si>
+  <si>
+    <t>I don't have many memories of this hotel - either good or bad except for one: for some reason this hotel was dead packed in mid-February. The service, rooms and breakfast and location were Ok but not outstanding. The nearby interstate didn't bother me too much - it's far enough to not create too much noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r175737988-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>175737988</t>
+  </si>
+  <si>
+    <t>09/04/2013</t>
+  </si>
+  <si>
+    <t>very good for price</t>
+  </si>
+  <si>
+    <t>very clean, very helpful staff. good breakast. good beds. quiet. although the area has seen  better days the fairfield inn is in good shape. you can get to restaurants,groceries, and liquor stores easily, some without getting on a street</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r174590051-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>174590051</t>
+  </si>
+  <si>
+    <t>08/28/2013</t>
+  </si>
+  <si>
+    <t>Car window smashed between trips to load car</t>
+  </si>
+  <si>
+    <t>The location of this Fairfield Inn is sketchy at best.  Homeless people under I-45.  While loading my car at 6:15 on Sunday morning 8/18 to take my son to his soccer tournament my car window was smashed out and bags stolen.  The office staff did not help or offer any support.  I was told they have a security guard until 6 but he just turned in his walkie talkie and keys.  She didn't know if there were any security cameras on the property.  There has been no follow up with me post incident.  They also said this had never happened but the responding officer said he was just there 2 weeks prior for a similar incident.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston I-45 North, responded to this reviewResponded September 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2013</t>
+  </si>
+  <si>
+    <t>The location of this Fairfield Inn is sketchy at best.  Homeless people under I-45.  While loading my car at 6:15 on Sunday morning 8/18 to take my son to his soccer tournament my car window was smashed out and bags stolen.  The office staff did not help or offer any support.  I was told they have a security guard until 6 but he just turned in his walkie talkie and keys.  She didn't know if there were any security cameras on the property.  There has been no follow up with me post incident.  They also said this had never happened but the responding officer said he was just there 2 weeks prior for a similar incident.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r170332028-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>170332028</t>
+  </si>
+  <si>
+    <t>08/01/2013</t>
+  </si>
+  <si>
+    <t>Standard Fairfield Inn near yet far from IAH airport</t>
+  </si>
+  <si>
+    <t>Business trip, one night here before catching a flight out of IAH in the morning. The local area seems to be in a depressed state, with more businesses closed then open, across the street from the FI is an ex-Outback that is boarded up, so I went to a Texas Road House that is 0.3 miles but 15 minutes to get to by car... Rooms were in good condition, clean and a decent breakfast buffet in the morning, along with good wifi all I lok for in a FI. In the morning, the drive to IAH can be tough, as the traffic on I-45 and then Beltway 8 to get there was a pain, so leave yourself plenty of time if you are doing so... Negative - A/C unit that never stopped running, must be the Houston humidity...MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston I-45 North, responded to this reviewResponded August 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2013</t>
+  </si>
+  <si>
+    <t>Business trip, one night here before catching a flight out of IAH in the morning. The local area seems to be in a depressed state, with more businesses closed then open, across the street from the FI is an ex-Outback that is boarded up, so I went to a Texas Road House that is 0.3 miles but 15 minutes to get to by car... Rooms were in good condition, clean and a decent breakfast buffet in the morning, along with good wifi all I lok for in a FI. In the morning, the drive to IAH can be tough, as the traffic on I-45 and then Beltway 8 to get there was a pain, so leave yourself plenty of time if you are doing so... Negative - A/C unit that never stopped running, must be the Houston humidity...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r143696622-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>143696622</t>
+  </si>
+  <si>
+    <t>10/25/2012</t>
+  </si>
+  <si>
+    <t>Very pleasant experience -  would stay here again</t>
+  </si>
+  <si>
+    <t>This hotel is right off I-45 at the intersection with FM1960. There is a Krogers in walking distance, as well as a shopping mall. Check in was the fastest experienced in a long time, very efficient. The room was attractively furnished, lobby has a fresh appearance, breakfast area was clean, and buffet breakfast was good. Windows in room can be opened, but there is road noise from I45 even when shut. Not too bothersome if tired though. Ample parking. Yes, would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>HoustonI-45FFS_GM, General Manager at Fairfield Inn &amp; Suites Houston I-45 North, responded to this reviewResponded October 30, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2012</t>
+  </si>
+  <si>
+    <t>This hotel is right off I-45 at the intersection with FM1960. There is a Krogers in walking distance, as well as a shopping mall. Check in was the fastest experienced in a long time, very efficient. The room was attractively furnished, lobby has a fresh appearance, breakfast area was clean, and buffet breakfast was good. Windows in room can be opened, but there is road noise from I45 even when shut. Not too bothersome if tired though. Ample parking. Yes, would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r135664584-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>135664584</t>
+  </si>
+  <si>
+    <t>07/28/2012</t>
+  </si>
+  <si>
+    <t>Worst Hotel Ever!</t>
+  </si>
+  <si>
+    <t>I booked a room because of free shuttle, when arrived to Houston I called them and said I must take a taxi. ( USD 19 ) As was almost midnight, I asked by the phone  if a room service or some food was available at the hotel on where they said yes, but...when arrived nothing was available, just snacks but not food at all. The recepcionist was the most rude staff i have ever met. I asked for the manager and the answer was he was not at the property. I took my bags and went out.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>HoustonI-45FFS_GM, Manager at Fairfield Inn &amp; Suites Houston I-45 North, responded to this reviewResponded August 2, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2012</t>
+  </si>
+  <si>
+    <t>I booked a room because of free shuttle, when arrived to Houston I called them and said I must take a taxi. ( USD 19 ) As was almost midnight, I asked by the phone  if a room service or some food was available at the hotel on where they said yes, but...when arrived nothing was available, just snacks but not food at all. The recepcionist was the most rude staff i have ever met. I asked for the manager and the answer was he was not at the property. I took my bags and went out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r115939952-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>115939952</t>
+  </si>
+  <si>
+    <t>07/28/2011</t>
+  </si>
+  <si>
+    <t>Not bad for one night...</t>
+  </si>
+  <si>
+    <t>We had an unexpected stop in Houston during a trip south and ended up at the Fairfield Inn &amp; Suites.  The facility was fairly clean and it had modern furnishings.  I appreciated the access to a private computer room and the breakfast bar that was available in the morning.  The airport pick-up and drop-off was wonderful!  The only thing that was inconvenient was that it did not have a restaurant - we had to walk along a busy road to get to a place to eat.  It's not a bad place to stay for one night.</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r4972126-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>4972126</t>
+  </si>
+  <si>
+    <t>04/12/2006</t>
+  </si>
+  <si>
+    <t>Extremely Dirty, STAY AWAY</t>
+  </si>
+  <si>
+    <t>I travel all the time.  This was one of the most disgusting hotels that I have seen in a long time.  Toilet backed up and they actually told me to come down and get the plunger!  The floors were filthy and strange hairs (not mine) all over counter in bathroom. Inch of dust on telephone and other furniture.  Finally, it got so bad I checked out and went next door to the Hampton Inn, world of difference.  If you have to stay in area, spend the extra few bucks and stay at the Hampton Inn.</t>
+  </si>
+  <si>
+    <t>April 2006</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1177,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1209,1857 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>53</v>
+      </c>
+      <c r="X4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>108</v>
+      </c>
+      <c r="X8" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>124</v>
+      </c>
+      <c r="O10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>130</v>
+      </c>
+      <c r="O11" t="s">
+        <v>131</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" t="s">
+        <v>135</v>
+      </c>
+      <c r="L12" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>137</v>
+      </c>
+      <c r="O12" t="s">
+        <v>131</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J13" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" t="s">
+        <v>141</v>
+      </c>
+      <c r="L13" t="s">
+        <v>142</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>137</v>
+      </c>
+      <c r="O13" t="s">
+        <v>131</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O14" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" t="s">
+        <v>105</v>
+      </c>
+      <c r="L15" t="s">
+        <v>153</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>149</v>
+      </c>
+      <c r="O15" t="s">
+        <v>98</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" t="s">
+        <v>157</v>
+      </c>
+      <c r="L16" t="s">
+        <v>158</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>159</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>161</v>
+      </c>
+      <c r="J17" t="s">
+        <v>162</v>
+      </c>
+      <c r="K17" t="s">
+        <v>163</v>
+      </c>
+      <c r="L17" t="s">
+        <v>164</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>166</v>
+      </c>
+      <c r="J18" t="s">
+        <v>167</v>
+      </c>
+      <c r="K18" t="s">
+        <v>168</v>
+      </c>
+      <c r="L18" t="s">
+        <v>169</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>170</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>171</v>
+      </c>
+      <c r="X18" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" t="s">
+        <v>177</v>
+      </c>
+      <c r="L19" t="s">
+        <v>178</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>179</v>
+      </c>
+      <c r="O19" t="s">
+        <v>79</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>182</v>
+      </c>
+      <c r="J20" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" t="s">
+        <v>184</v>
+      </c>
+      <c r="L20" t="s">
+        <v>185</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>186</v>
+      </c>
+      <c r="O20" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>188</v>
+      </c>
+      <c r="J21" t="s">
+        <v>189</v>
+      </c>
+      <c r="K21" t="s">
+        <v>190</v>
+      </c>
+      <c r="L21" t="s">
+        <v>191</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>192</v>
+      </c>
+      <c r="O21" t="s">
+        <v>98</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>195</v>
+      </c>
+      <c r="J22" t="s">
+        <v>196</v>
+      </c>
+      <c r="K22" t="s">
+        <v>197</v>
+      </c>
+      <c r="L22" t="s">
+        <v>198</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>199</v>
+      </c>
+      <c r="O22" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>200</v>
+      </c>
+      <c r="X22" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>204</v>
+      </c>
+      <c r="J23" t="s">
+        <v>205</v>
+      </c>
+      <c r="K23" t="s">
+        <v>206</v>
+      </c>
+      <c r="L23" t="s">
+        <v>207</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>208</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>209</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>210</v>
+      </c>
+      <c r="J24" t="s">
+        <v>211</v>
+      </c>
+      <c r="K24" t="s">
+        <v>212</v>
+      </c>
+      <c r="L24" t="s">
+        <v>213</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>208</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>214</v>
+      </c>
+      <c r="X24" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>218</v>
+      </c>
+      <c r="J25" t="s">
+        <v>219</v>
+      </c>
+      <c r="K25" t="s">
+        <v>220</v>
+      </c>
+      <c r="L25" t="s">
+        <v>221</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>222</v>
+      </c>
+      <c r="O25" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>223</v>
+      </c>
+      <c r="X25" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>226</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>227</v>
+      </c>
+      <c r="J26" t="s">
+        <v>228</v>
+      </c>
+      <c r="K26" t="s">
+        <v>229</v>
+      </c>
+      <c r="L26" t="s">
+        <v>230</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>231</v>
+      </c>
+      <c r="O26" t="s">
+        <v>62</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>232</v>
+      </c>
+      <c r="X26" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>235</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>236</v>
+      </c>
+      <c r="J27" t="s">
+        <v>237</v>
+      </c>
+      <c r="K27" t="s">
+        <v>238</v>
+      </c>
+      <c r="L27" t="s">
+        <v>239</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>240</v>
+      </c>
+      <c r="O27" t="s">
+        <v>98</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>241</v>
+      </c>
+      <c r="X27" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>244</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>245</v>
+      </c>
+      <c r="J28" t="s">
+        <v>246</v>
+      </c>
+      <c r="K28" t="s">
+        <v>247</v>
+      </c>
+      <c r="L28" t="s">
+        <v>248</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>249</v>
+      </c>
+      <c r="O28" t="s">
+        <v>131</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>251</v>
+      </c>
+      <c r="J29" t="s">
+        <v>252</v>
+      </c>
+      <c r="K29" t="s">
+        <v>253</v>
+      </c>
+      <c r="L29" t="s">
+        <v>254</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>255</v>
+      </c>
+      <c r="O29" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_239.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_239.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="386">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,66 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r600739787-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107769</t>
+  </si>
+  <si>
+    <t>600739787</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t>Cozy and comfortable</t>
+  </si>
+  <si>
+    <t>The room was very comfortable and breakfast was fuss free. Fast check in and out.It's close by to George Bush International airport, but rather far from downtown Houston. Would recommend if your business is in Spring or Cypress.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r585339812-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>585339812</t>
+  </si>
+  <si>
+    <t>06/05/2018</t>
+  </si>
+  <si>
+    <t>Clean, friendly and well located</t>
+  </si>
+  <si>
+    <t>It's as expected with a quality chain.  Clean rooms, great staff, ample parking.  Breakfast was very good as expected.  Exercise room had all equipment in order.  You can hear the highway at night from some rooms but noise isn't that badMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Shane J, Manager at Fairfield Inn &amp; Suites Houston I-45 North, responded to this reviewResponded June 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2018</t>
+  </si>
+  <si>
+    <t>It's as expected with a quality chain.  Clean rooms, great staff, ample parking.  Breakfast was very good as expected.  Exercise room had all equipment in order.  You can hear the highway at night from some rooms but noise isn't that badMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r573615246-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>107769</t>
-  </si>
-  <si>
     <t>573615246</t>
   </si>
   <si>
@@ -177,12 +225,6 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>Shane J, Manager at Fairfield Inn &amp; Suites Houston I-45 North, responded to this reviewResponded June 6, 2018</t>
-  </si>
-  <si>
-    <t>Responded June 6, 2018</t>
-  </si>
-  <si>
     <t>Close to Spring, not far from Woodlands. Front desk are nice, rooms are clean and slightly upgraded with elite status. Could be a little busy with an event, especially for the kids to play at the pool. Overall a good budget hotel.More</t>
   </si>
   <si>
@@ -204,9 +246,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Shane J, General Manager at Fairfield Inn &amp; Suites Houston I-45 North, responded to this reviewResponded April 9, 2018</t>
   </si>
   <si>
@@ -237,6 +276,36 @@
     <t>Taylor who worked the front desk tonight is amazing!!! She gave great customer service! I was dehydrated and in desperate need of water and she hooked me up with a cold bottle instantly! Overall service here has been great but Taylor is definitely my favorite person!!! Make sure she knows how much I appreciate her! And give her a raise! More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r516489037-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>516489037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridgestone </t>
+  </si>
+  <si>
+    <t>Amazing people at the front desk. Taylor is really sweet! Definitely will recommend! They have lots of options for breakfast. The pool area is clean and thats not something you see often! Keep it up Fairfield!MoreShow less</t>
+  </si>
+  <si>
+    <t>Amazing people at the front desk. Taylor is really sweet! Definitely will recommend! They have lots of options for breakfast. The pool area is clean and thats not something you see often! Keep it up Fairfield!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r510099543-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>510099543</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family Get Together </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I loved the atmosphere at the Fairfield Inn. Everyone was so pleasant and courteous. My room was excellent, the bathroom was clean and the bed was very comfortable. The complimentary breakfast was great. Staying at the Fairfield Inn and Suites was such a pleasant experience. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r499274569-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -324,6 +393,54 @@
     <t>As a Marriott Rewards member, I am accustomed to having points for my stays appear on my account within about 3-5 days after my stay. For my stay in mid April, the follow-up bill showed up in my email more than two weeks later, and then the points posted to my account about three weeks later. Not impressed with that. For the hotel, it's conveniently on a side road a block away from the FM 1960 and I-45 intersection, making it convenient to access without highway noise. The room was clean, the bed comfortable and the included breakfast acceptable. Balances out to an average evaluation.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r456439369-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>456439369</t>
+  </si>
+  <si>
+    <t>02/01/2017</t>
+  </si>
+  <si>
+    <t>Convenient and Clean</t>
+  </si>
+  <si>
+    <t>Stayed one night here on our way back from Honduras. Close to airport so shuttle was very handy. Shuttle was not sitting there when we arrived but after a while it did show up and the driver was gracious and helpful.  Room was basic but clean and location was quiet.  The hotel is kind of attached to another so it is in the back and hard to see if you are driving there....not an issue if you take shuttle. The continental breakfast was very convenient and the gratis wifi.  All in all...we would definitely stay again if passing through.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r412761642-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>412761642</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t>Very nice and convenient to I 45</t>
+  </si>
+  <si>
+    <t>The carpet has been replaced in the rooms and halls and there was new furniture in the room. The TV was great, very crisp picture. The hotel was very clean. We had a frig and microwave in our room. Lidia, the front desk person, went out of the way to make sure our stay was enjoyable.  She made suggestions on places to go. The breakfast buffet in the morning was also a plus. We will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>TMIHospitality1, Manager at Fairfield Inn &amp; Suites Houston I-45 North, responded to this reviewResponded September 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2016</t>
+  </si>
+  <si>
+    <t>The carpet has been replaced in the rooms and halls and there was new furniture in the room. The TV was great, very crisp picture. The hotel was very clean. We had a frig and microwave in our room. Lidia, the front desk person, went out of the way to make sure our stay was enjoyable.  She made suggestions on places to go. The breakfast buffet in the morning was also a plus. We will definitely stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r392578437-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -393,6 +510,39 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r368083198-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>368083198</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>One night stay</t>
+  </si>
+  <si>
+    <t>This is a first time I came to USA. I traveled to Houston for business with a my partner here. I stay for one night at this hotel. Wow it's turns out this is a very nice hotel. His service was friendly. Clean bedroom. Clean bathroom. Truly an unforgettable experience. Great .. 2 thumbs</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r357299982-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357299982</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great experience. Check In was incredibly smooth even though there were several people checking in at the same time. Ms. Shibley was polite and efficient! Rooms were clean and comfy. Breakfast was very good with lots of variety! Will definitely stay here again for next years competition! </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r347629732-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -411,9 +561,6 @@
     <t>February 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r336265006-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -450,6 +597,60 @@
     <t>The room we had was fantastic!   A special "Thank You" to Allen.........who not only greeted us with such a warm and friendly welcome upon our arrival, but he also went "over and above" what I had expected.  When I asked him if he had heard of Mainstreet America up in Spring, Texas and knew about where it was from the hotel, he confessed and said "I'm not from around here, but I will google it for you guys and have you that info in about 5 minutes, when you come back downstairs, I will have it"..........and he did!!!  The breakfast buffet was really great   The only drawback to this Fairfield Inn is the locale.........getting in and out from the freeway.   Other than that(which wasn't really a problem), we had a wonderful stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r297564349-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>297564349</t>
+  </si>
+  <si>
+    <t>08/10/2015</t>
+  </si>
+  <si>
+    <t>hotel near woodlands</t>
+  </si>
+  <si>
+    <t>Good accommodations for family stay.  Pool was good, rooms clean and service was good.  Free breakfast included in stay. Great for morning wake-up.  Would stay there again if the need arises..pricing not bad!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston I-45 North, responded to this reviewResponded August 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2015</t>
+  </si>
+  <si>
+    <t>Good accommodations for family stay.  Pool was good, rooms clean and service was good.  Free breakfast included in stay. Great for morning wake-up.  Would stay there again if the need arises..pricing not bad!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r281224657-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>281224657</t>
+  </si>
+  <si>
+    <t>06/18/2015</t>
+  </si>
+  <si>
+    <t>Nice clean place, rooms smaller than expected</t>
+  </si>
+  <si>
+    <t>This is a nice place overall, with a good pool and hot tub and nice clean rooms. Our only problem was the room was smaller than this type of room usually is, and the sofa bed was too small for both our kids. Very little kids might fit two to this but not elementary school age. They were kind enough to lend us a rollaway at no charge, but the room was so small we had to reorganize ALL the furniture to make it fit. It worked, and the staff was very courteous and hospitable; just know that if you have two kids you will have to do some setting up.Breakfast was good - cereals, milk, yogurt, fruit, eggs, sausage, and Texas waffles.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston I-45 North, responded to this reviewResponded June 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2015</t>
+  </si>
+  <si>
+    <t>This is a nice place overall, with a good pool and hot tub and nice clean rooms. Our only problem was the room was smaller than this type of room usually is, and the sofa bed was too small for both our kids. Very little kids might fit two to this but not elementary school age. They were kind enough to lend us a rollaway at no charge, but the room was so small we had to reorganize ALL the furniture to make it fit. It worked, and the staff was very courteous and hospitable; just know that if you have two kids you will have to do some setting up.Breakfast was good - cereals, milk, yogurt, fruit, eggs, sausage, and Texas waffles.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r274903493-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -498,6 +699,45 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r255255804-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>255255804</t>
+  </si>
+  <si>
+    <t>02/19/2015</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>We stayed overnight here for a youth conference.  Our group had five rooms and the hotel was full of youth.  The front desk was very efficient and friendly when we checked in.  All five rooms were clean and in good shape.  Needless to say  breakfast was very full the next morning but the sole attendant did a great job keeping the food stocked.  She really could have used some help as she was running her legs off.  Our only complaint was of no fault to the hotel and staff, but obviously the adult leaders of some of the youth did not require them to be respectful of other lodgers.  Four of our rooms were across from the fitness center and there were teenagers in there until at least 4:00 am, very loud and up and down the hall.  Again this is of no fault of the hotel but if your stay corresponds with youth conference, I would suggest a room away from the public areas.  Great job by the staff considering the circumstances.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>We stayed overnight here for a youth conference.  Our group had five rooms and the hotel was full of youth.  The front desk was very efficient and friendly when we checked in.  All five rooms were clean and in good shape.  Needless to say  breakfast was very full the next morning but the sole attendant did a great job keeping the food stocked.  She really could have used some help as she was running her legs off.  Our only complaint was of no fault to the hotel and staff, but obviously the adult leaders of some of the youth did not require them to be respectful of other lodgers.  Four of our rooms were across from the fitness center and there were teenagers in there until at least 4:00 am, very loud and up and down the hall.  Again this is of no fault of the hotel but if your stay corresponds with youth conference, I would suggest a room away from the public areas.  Great job by the staff considering the circumstances.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r252802589-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>252802589</t>
+  </si>
+  <si>
+    <t>02/05/2015</t>
+  </si>
+  <si>
+    <t>Nice Hotel, Great Location, Friendly Associates</t>
+  </si>
+  <si>
+    <t>We had a great stay overall. The hotel was clean, the staff was friendly and the beds were comfortable.  This was a business trip. They have 2 treadmills and some dumbbells in the work out area that I utilized while I was there too.  Our room(s) came with a fridge which was nice since we were staying for the week.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r242394335-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -507,9 +747,6 @@
     <t>12/02/2014</t>
   </si>
   <si>
-    <t>Great stay</t>
-  </si>
-  <si>
     <t>Great stay hotel was very. Clean staff was friendly nice stay would stay again breakfast so_so got tried eating the same thing over our four day stay And ants in the trash can other then. That lovely hotel ,could see myself in the floors very Clean,</t>
   </si>
   <si>
@@ -528,9 +765,6 @@
     <t>I lodged here between 11/26 and 11/30 while visiting family in Houston.  The check-in and out process was easy.  The room was basic and clean.  My daughter had an incident with an unclean towel, however, I think this was an anomaly as everything else was extremely clean.  I did use the fitness center, which had weights, two treadmills and an elliptical machine.  The equipment was new.  There were plenty of clean towels, disinfectant wipes to clean machines after use and water.  The fitness center was very clean.  I don't have an issue with the hotel's location.MoreShow less</t>
   </si>
   <si>
-    <t>November 2014</t>
-  </si>
-  <si>
     <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston I-45 North, responded to this reviewResponded December 1, 2014</t>
   </si>
   <si>
@@ -561,6 +795,45 @@
     <t>We made reservations at the Fairfield  Inn Airport facility and changed to this one when we discovered we were closer to our venue at the Fairfield I-45 location.  I am glad we did as we were less than five minutes away from Ashton Gardens, where we needed to be.  The only drawback was the walls were too thin and we could hear talking in the hallway as our room was near the elevator.   Our room was clean and a similar standard to other hotels of this class.  Breakfast was included in our very reasonable room rate and I considered it a step above with fresh scrambled eggs and boiled eggs (as opposed to pre- processed eggs), waffles, a change of meat daily, fresh fruits, yogurts, and the usual breakfast offerings.    There is also an indoor pool and a hot tub.  If I had not been so busy, I would have definitely taken a dip.    One day it rained cats and dogs and being able to reach my car via the exterior pool door leading to the back lot was quick and easy.  The hotel was immaculate and clean throughout and the staff was very helpful, lending me scissors --not once but twice, giving me directions and facilitating our reservation change at the last minute, even though they were full!   Wifi in our room worked well with no problems after signing in.  Both computer and printer worked like a dream in...We made reservations at the Fairfield  Inn Airport facility and changed to this one when we discovered we were closer to our venue at the Fairfield I-45 location.  I am glad we did as we were less than five minutes away from Ashton Gardens, where we needed to be.  The only drawback was the walls were too thin and we could hear talking in the hallway as our room was near the elevator.   Our room was clean and a similar standard to other hotels of this class.  Breakfast was included in our very reasonable room rate and I considered it a step above with fresh scrambled eggs and boiled eggs (as opposed to pre- processed eggs), waffles, a change of meat daily, fresh fruits, yogurts, and the usual breakfast offerings.    There is also an indoor pool and a hot tub.  If I had not been so busy, I would have definitely taken a dip.    One day it rained cats and dogs and being able to reach my car via the exterior pool door leading to the back lot was quick and easy.  The hotel was immaculate and clean throughout and the staff was very helpful, lending me scissors --not once but twice, giving me directions and facilitating our reservation change at the last minute, even though they were full!   Wifi in our room worked well with no problems after signing in.  Both computer and printer worked like a dream in preparing much needed documents for international trips.   The floors actually gleamed and the carpet was very clean and bright.   I would stay here again and I definitely recommend it to others.  Be sure to sign up for their elite status to receive water in a goodie bag!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r231769844-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>231769844</t>
+  </si>
+  <si>
+    <t>09/30/2014</t>
+  </si>
+  <si>
+    <t>Best Place To stay</t>
+  </si>
+  <si>
+    <t>I had great time during my stay, it was very close to my work place, staff  is very friendly and cooperative, Room was very clean ,Breakfast served was also nice, All the facilities were excellentI will definitely like to stay at the same hotel during my next visit  and I will recommend this hotel to all my friends and colleagues</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r224851869-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>224851869</t>
+  </si>
+  <si>
+    <t>08/27/2014</t>
+  </si>
+  <si>
+    <t>Tom is top notch!</t>
+  </si>
+  <si>
+    <t>Tom Meadough at the front desk is the best agent I've dealt with in years!  During my visit last week he caught wind of the awful day I had (here is your warning...Houston criminals are targeting rental cars!  Hertz Hobby is averaging 6 cars a week broken into.  I was parked at Houston Premium Outlets in Cypress and they were in and out with everything.  The Outlets have NO security in the parking lot) and went out of his way to write me a very nice letter and credit my account with Marriott points!  He had no reason to do this other than he felt bad for a traveller to his city.  I will DEFINITELY use this property again and again when visiting Houston.  You simply don't find people like Tom out there today.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Tom Meadough at the front desk is the best agent I've dealt with in years!  During my visit last week he caught wind of the awful day I had (here is your warning...Houston criminals are targeting rental cars!  Hertz Hobby is averaging 6 cars a week broken into.  I was parked at Houston Premium Outlets in Cypress and they were in and out with everything.  The Outlets have NO security in the parking lot) and went out of his way to write me a very nice letter and credit my account with Marriott points!  He had no reason to do this other than he felt bad for a traveller to his city.  I will DEFINITELY use this property again and again when visiting Houston.  You simply don't find people like Tom out there today.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r221058204-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -576,9 +849,6 @@
     <t>I have found that Marriott and its chain of hotels is usually the way to go.  I stay at others, to include Hilton, Best Western and Wyndham properties, but have found Marriott (and Fairfield specifically) to be very good.  Nothing different here.  Clean room, very comfortable bed, and great shower.  Didn't eat the breakfast this time as we were meeting people for breakfast but otherwise very good place to stay.  Getting in and out (and on and off I-45) a bit of a hassle but otherwise very good.</t>
   </si>
   <si>
-    <t>August 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r216851064-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -627,6 +897,45 @@
     <t>I don't have many memories of this hotel - either good or bad except for one: for some reason this hotel was dead packed in mid-February. The service, rooms and breakfast and location were Ok but not outstanding. The nearby interstate didn't bother me too much - it's far enough to not create too much noise.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r194618558-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>194618558</t>
+  </si>
+  <si>
+    <t>02/19/2014</t>
+  </si>
+  <si>
+    <t>Nothing stood out!</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 nights. It is not in the best part of town but is safe. May be too noisy because the interstate runs right beside it. Easy to find location right off the highway. Rooms are clean and free breakfast is an added plus. Recommend rooms on side of building away from highway. Staff is nice but this is an older hotel and beds are not as comfortable. For the price, this location is just ok and does its job. I would stay here again as it is 1/3 cheaper than the newer location 4 miles away.MoreShow less</t>
+  </si>
+  <si>
+    <t>TMIHospitality, Manager at Fairfield Inn &amp; Suites Houston I-45 North, responded to this reviewResponded February 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for 4 nights. It is not in the best part of town but is safe. May be too noisy because the interstate runs right beside it. Easy to find location right off the highway. Rooms are clean and free breakfast is an added plus. Recommend rooms on side of building away from highway. Staff is nice but this is an older hotel and beds are not as comfortable. For the price, this location is just ok and does its job. I would stay here again as it is 1/3 cheaper than the newer location 4 miles away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r189424697-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>189424697</t>
+  </si>
+  <si>
+    <t>01/02/2014</t>
+  </si>
+  <si>
+    <t>Very Satisfied!</t>
+  </si>
+  <si>
+    <t>I have stayed here twice in the past month, visiting family nearby for thanksgiving &amp; christmas. We were quite pleased with our stay both times. We stayed in a king suite over thanksgiving, then a room with 2 queens. We preferred the bed in the king suite &amp; the suite room but needed the 2 beds on our 2nd stay. All staff were friendly &amp; very accommodating. Rooms are very clean, as well as pool area &amp; breakfast area. Breakfast gives lots of choices. Will more than likely stay here again next trip to visit family.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r175737988-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -696,6 +1005,45 @@
     <t>Business trip, one night here before catching a flight out of IAH in the morning. The local area seems to be in a depressed state, with more businesses closed then open, across the street from the FI is an ex-Outback that is boarded up, so I went to a Texas Road House that is 0.3 miles but 15 minutes to get to by car... Rooms were in good condition, clean and a decent breakfast buffet in the morning, along with good wifi all I lok for in a FI. In the morning, the drive to IAH can be tough, as the traffic on I-45 and then Beltway 8 to get there was a pain, so leave yourself plenty of time if you are doing so... Negative - A/C unit that never stopped running, must be the Houston humidity...More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r164267367-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>164267367</t>
+  </si>
+  <si>
+    <t>06/17/2013</t>
+  </si>
+  <si>
+    <t>Good Brand</t>
+  </si>
+  <si>
+    <t>One of the best of this group I have used. Very clean, good bedding and towels etc. Breakfast bar was well kept and good.They could use a better signage, hard to find even with a GPS, but all in all a good place.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r154162498-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154162498</t>
+  </si>
+  <si>
+    <t>03/10/2013</t>
+  </si>
+  <si>
+    <t>Comfortable, clean, and friendly staff</t>
+  </si>
+  <si>
+    <t>I was on a business trip to Houston and needed a room, near the airport, at the last minute.  I wasn't looking for surprises or frills -- just a clean, quiet, comfortable place for the night, in a good location and with the usual business amenities.  And that's what I got.  The room was very clean and I had no noise problems, even though it's right on the highway.  Internet was fast.  Climate control was good -- i had no problems settling at a comfortable temperature.  The pool looked nice, though I didn't use it.  The exercise room was small but perfectly adequate for my purposes.  The breakfast was what you typically get at these chains, with hot and cold options.  The omelettes looked prefab and I didn't try them, but the fruit was nice.  This area along I-45 is full of hotels and big chain restaurants.  Not much for charm -- unless you like highways -- but it's strategically located for the airport and northern suburbs.  And the drive to the city doesn't take too long, although that obviously depends on traffic.If I wanted to be picky, I'd say that the fan on the bathroom is pretty loud.  But it really didn't bother me.And high marks to the service.  Front desk and housekeeping were friendly and helpful, above and beyond the usual.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>I was on a business trip to Houston and needed a room, near the airport, at the last minute.  I wasn't looking for surprises or frills -- just a clean, quiet, comfortable place for the night, in a good location and with the usual business amenities.  And that's what I got.  The room was very clean and I had no noise problems, even though it's right on the highway.  Internet was fast.  Climate control was good -- i had no problems settling at a comfortable temperature.  The pool looked nice, though I didn't use it.  The exercise room was small but perfectly adequate for my purposes.  The breakfast was what you typically get at these chains, with hot and cold options.  The omelettes looked prefab and I didn't try them, but the fruit was nice.  This area along I-45 is full of hotels and big chain restaurants.  Not much for charm -- unless you like highways -- but it's strategically located for the airport and northern suburbs.  And the drive to the city doesn't take too long, although that obviously depends on traffic.If I wanted to be picky, I'd say that the fan on the bathroom is pretty loud.  But it really didn't bother me.And high marks to the service.  Front desk and housekeeping were friendly and helpful, above and beyond the usual.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r143696622-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
   </si>
   <si>
@@ -766,6 +1114,48 @@
   </si>
   <si>
     <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r18980993-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>18980993</t>
+  </si>
+  <si>
+    <t>08/15/2008</t>
+  </si>
+  <si>
+    <t>Nice Budget Hotel</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights while going to a concert in July. Check-in was quick and easy, Rooms were typical rooms you would find in the budget marriott properties. Room was clean and up to standards, everything worked fine and the bed was comfy. The pool was actually closed for repairs when we were there but the front desk called to the next door hotel and they allowed us to use their pool, that was nice. The girl working the midnight shift was very rude,  we went to get some soap and shampoo and she seemed really upset that we were bothering her....oh well....Overall its good for a couple nights to lay your head....MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>TharaldsonCorporate, Hotel Management Company at Fairfield Inn &amp; Suites Houston I-45 North, responded to this reviewResponded October 1, 2009</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2009</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights while going to a concert in July. Check-in was quick and easy, Rooms were typical rooms you would find in the budget marriott properties. Room was clean and up to standards, everything worked fine and the bed was comfy. The pool was actually closed for repairs when we were there but the front desk called to the next door hotel and they allowed us to use their pool, that was nice. The girl working the midnight shift was very rude,  we went to get some soap and shampoo and she seemed really upset that we were bothering her....oh well....Overall its good for a couple nights to lay your head....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r5474053-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>5474053</t>
+  </si>
+  <si>
+    <t>07/16/2006</t>
+  </si>
+  <si>
+    <t>Mixed Review</t>
+  </si>
+  <si>
+    <t>Very comfortable beds and pillows.  Something sticky on the carpeting.  Hotel appeared dirty.  Front desk had to go upstairs to check on the room before it could be rented.  Very disorganized front desk.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107769-r4972126-Fairfield_Inn_Suites_Houston_I_45_North-Houston_Texas.html</t>
@@ -1335,14 +1725,10 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>53</v>
-      </c>
-      <c r="X2" t="s">
-        <v>54</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -1358,52 +1744,56 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -1419,34 +1809,34 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
         <v>68</v>
-      </c>
-      <c r="K4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" t="s">
-        <v>62</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1458,13 +1848,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="X4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -1480,34 +1870,34 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
         <v>73</v>
       </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>74</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>75</v>
       </c>
-      <c r="K5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>78</v>
-      </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1519,13 +1909,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -1541,34 +1931,34 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
         <v>83</v>
       </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>84</v>
       </c>
-      <c r="J6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>88</v>
-      </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1580,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="X6" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -1602,7 +1992,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1611,25 +2001,25 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1641,13 +2031,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -1663,7 +2053,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1672,47 +2062,39 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>3</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>108</v>
-      </c>
-      <c r="X8" t="s">
-        <v>109</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -1728,7 +2110,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1737,49 +2119,43 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s">
-        <v>79</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="n">
-        <v>3</v>
-      </c>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>3</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="X9" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -1795,7 +2171,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1804,45 +2180,43 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>112</v>
+      </c>
+      <c r="X10" t="s">
+        <v>113</v>
+      </c>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11">
@@ -1858,7 +2232,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1867,25 +2241,25 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1896,10 +2270,14 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>122</v>
+      </c>
+      <c r="X11" t="s">
+        <v>123</v>
+      </c>
       <c r="Y11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
@@ -1915,7 +2293,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1924,34 +2302,34 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="K12" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="L12" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
         <v>131</v>
       </c>
-      <c r="P12" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>4</v>
-      </c>
-      <c r="S12" t="s"/>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
         <v>4</v>
@@ -1962,7 +2340,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
@@ -1978,7 +2356,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -1987,33 +2365,31 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="K13" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
         <v>137</v>
       </c>
       <c r="O13" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
         <v>5</v>
       </c>
-      <c r="R13" t="n">
-        <v>4</v>
-      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
@@ -2022,10 +2398,14 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
+      <c r="W13" t="s">
+        <v>138</v>
+      </c>
+      <c r="X13" t="s">
+        <v>139</v>
+      </c>
       <c r="Y13" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
@@ -2041,48 +2421,56 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" t="s">
         <v>144</v>
       </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="L14" t="s">
         <v>145</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
         <v>146</v>
       </c>
-      <c r="K14" t="s">
-        <v>147</v>
-      </c>
-      <c r="L14" t="s">
-        <v>148</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" t="s">
-        <v>149</v>
-      </c>
       <c r="O14" t="s">
-        <v>79</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>68</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>147</v>
+      </c>
+      <c r="X14" t="s">
+        <v>148</v>
+      </c>
       <c r="Y14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
@@ -2113,28 +2501,28 @@
         <v>152</v>
       </c>
       <c r="K15" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="L15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O15" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
         <v>3</v>
@@ -2142,10 +2530,14 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>155</v>
+      </c>
+      <c r="X15" t="s">
+        <v>156</v>
+      </c>
       <c r="Y15" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
@@ -2161,7 +2553,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2170,39 +2562,45 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="J16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K16" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L16" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="O16" t="s">
         <v>52</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
       <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
@@ -2218,7 +2616,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2227,45 +2625,39 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="J17" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K17" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
-      <c r="N17" t="s"/>
-      <c r="O17" t="s"/>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+      <c r="N17" t="s">
+        <v>169</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18">
@@ -2281,7 +2673,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2290,26 +2682,22 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="J18" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
-      </c>
-      <c r="N18" t="s">
-        <v>170</v>
-      </c>
-      <c r="O18" t="s">
-        <v>52</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
@@ -2319,14 +2707,10 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>171</v>
-      </c>
-      <c r="X18" t="s">
-        <v>172</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19">
@@ -2342,7 +2726,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2351,45 +2735,39 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O19" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
@@ -2434,14 +2812,14 @@
       <c r="O20" t="s">
         <v>131</v>
       </c>
-      <c r="P20" t="s"/>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
       <c r="Q20" t="s"/>
       <c r="R20" t="n">
-        <v>3</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
         <v>4</v>
@@ -2489,25 +2867,25 @@
         <v>191</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="O21" t="s">
-        <v>98</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q21" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
       <c r="R21" t="n">
         <v>4</v>
       </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2515,7 +2893,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22">
@@ -2531,43 +2909,43 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
         <v>194</v>
       </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>195</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>196</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>197</v>
-      </c>
-      <c r="L22" t="s">
-        <v>198</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O22" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="P22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
         <v>4</v>
@@ -2576,13 +2954,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
+        <v>199</v>
+      </c>
+      <c r="X22" t="s">
         <v>200</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>201</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="23">
@@ -2598,46 +2976,42 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
+        <v>202</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
         <v>203</v>
       </c>
-      <c r="G23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>204</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>205</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>206</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
         <v>207</v>
       </c>
-      <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s">
-        <v>208</v>
-      </c>
       <c r="O23" t="s">
-        <v>52</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P23" t="s"/>
       <c r="Q23" t="n">
-        <v>4</v>
-      </c>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R23" t="s"/>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
@@ -2646,10 +3020,14 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>208</v>
+      </c>
+      <c r="X23" t="s">
+        <v>209</v>
+      </c>
       <c r="Y23" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24">
@@ -2665,7 +3043,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -2674,53 +3052,39 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J24" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K24" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>1</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>214</v>
-      </c>
-      <c r="X24" t="s">
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
         <v>215</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="25">
@@ -2751,47 +3115,39 @@
         <v>219</v>
       </c>
       <c r="K25" t="s">
+        <v>144</v>
+      </c>
+      <c r="L25" t="s">
         <v>220</v>
       </c>
-      <c r="L25" t="s">
-        <v>221</v>
-      </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="O25" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s"/>
       <c r="R25" t="n">
-        <v>3</v>
-      </c>
-      <c r="S25" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>223</v>
-      </c>
-      <c r="X25" t="s">
-        <v>224</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26">
@@ -2807,62 +3163,48 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>222</v>
+      </c>
+      <c r="J26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K26" t="s">
+        <v>224</v>
+      </c>
+      <c r="L26" t="s">
+        <v>225</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
         <v>226</v>
       </c>
-      <c r="G26" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" t="s">
-        <v>227</v>
-      </c>
-      <c r="J26" t="s">
-        <v>228</v>
-      </c>
-      <c r="K26" t="s">
-        <v>229</v>
-      </c>
-      <c r="L26" t="s">
-        <v>230</v>
-      </c>
-      <c r="M26" t="n">
-        <v>3</v>
-      </c>
-      <c r="N26" t="s">
-        <v>231</v>
-      </c>
       <c r="O26" t="s">
-        <v>62</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>4</v>
-      </c>
-      <c r="R26" t="n">
-        <v>3</v>
-      </c>
-      <c r="S26" t="n">
-        <v>4</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>232</v>
-      </c>
-      <c r="X26" t="s">
-        <v>233</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27">
@@ -2878,7 +3220,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -2887,51 +3229,43 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="J27" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="K27" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="O27" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>1</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1</v>
-      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>241</v>
-      </c>
-      <c r="X27" t="s">
-        <v>242</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28">
@@ -2947,7 +3281,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -2956,37 +3290,35 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="J28" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="K28" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="L28" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="O28" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="P28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>3</v>
-      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2994,7 +3326,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29">
@@ -3010,7 +3342,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3019,39 +3351,37 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="J29" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="K29" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="s">
-        <v>255</v>
-      </c>
-      <c r="O29" t="s">
-        <v>62</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
-      </c>
-      <c r="R29" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3059,7 +3389,1307 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>244</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>245</v>
+      </c>
+      <c r="J30" t="s">
+        <v>246</v>
+      </c>
+      <c r="K30" t="s">
+        <v>247</v>
+      </c>
+      <c r="L30" t="s">
+        <v>248</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>239</v>
+      </c>
+      <c r="O30" t="s">
+        <v>68</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>249</v>
+      </c>
+      <c r="X30" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>252</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>253</v>
+      </c>
+      <c r="J31" t="s">
         <v>254</v>
+      </c>
+      <c r="K31" t="s">
+        <v>255</v>
+      </c>
+      <c r="L31" t="s">
+        <v>256</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>257</v>
+      </c>
+      <c r="O31" t="s">
+        <v>102</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>259</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>260</v>
+      </c>
+      <c r="J32" t="s">
+        <v>261</v>
+      </c>
+      <c r="K32" t="s">
+        <v>262</v>
+      </c>
+      <c r="L32" t="s">
+        <v>263</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>264</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>265</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>266</v>
+      </c>
+      <c r="J33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K33" t="s">
+        <v>268</v>
+      </c>
+      <c r="L33" t="s">
+        <v>269</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>270</v>
+      </c>
+      <c r="O33" t="s">
+        <v>52</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>272</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>273</v>
+      </c>
+      <c r="J34" t="s">
+        <v>274</v>
+      </c>
+      <c r="K34" t="s">
+        <v>275</v>
+      </c>
+      <c r="L34" t="s">
+        <v>276</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>270</v>
+      </c>
+      <c r="O34" t="s">
+        <v>131</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>277</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>278</v>
+      </c>
+      <c r="J35" t="s">
+        <v>279</v>
+      </c>
+      <c r="K35" t="s">
+        <v>280</v>
+      </c>
+      <c r="L35" t="s">
+        <v>281</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>282</v>
+      </c>
+      <c r="O35" t="s">
+        <v>121</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>284</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>285</v>
+      </c>
+      <c r="J36" t="s">
+        <v>286</v>
+      </c>
+      <c r="K36" t="s">
+        <v>287</v>
+      </c>
+      <c r="L36" t="s">
+        <v>288</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>289</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>290</v>
+      </c>
+      <c r="X36" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>293</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>294</v>
+      </c>
+      <c r="J37" t="s">
+        <v>295</v>
+      </c>
+      <c r="K37" t="s">
+        <v>296</v>
+      </c>
+      <c r="L37" t="s">
+        <v>297</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>298</v>
+      </c>
+      <c r="X37" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>301</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>302</v>
+      </c>
+      <c r="J38" t="s">
+        <v>303</v>
+      </c>
+      <c r="K38" t="s">
+        <v>304</v>
+      </c>
+      <c r="L38" t="s">
+        <v>305</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>306</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>307</v>
+      </c>
+      <c r="J39" t="s">
+        <v>308</v>
+      </c>
+      <c r="K39" t="s">
+        <v>309</v>
+      </c>
+      <c r="L39" t="s">
+        <v>310</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>311</v>
+      </c>
+      <c r="O39" t="s">
+        <v>68</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>312</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>313</v>
+      </c>
+      <c r="J40" t="s">
+        <v>314</v>
+      </c>
+      <c r="K40" t="s">
+        <v>315</v>
+      </c>
+      <c r="L40" t="s">
+        <v>316</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>311</v>
+      </c>
+      <c r="O40" t="s">
+        <v>68</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>317</v>
+      </c>
+      <c r="X40" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>320</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>321</v>
+      </c>
+      <c r="J41" t="s">
+        <v>322</v>
+      </c>
+      <c r="K41" t="s">
+        <v>323</v>
+      </c>
+      <c r="L41" t="s">
+        <v>324</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>325</v>
+      </c>
+      <c r="O41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>326</v>
+      </c>
+      <c r="X41" t="s">
+        <v>327</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>329</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>330</v>
+      </c>
+      <c r="J42" t="s">
+        <v>331</v>
+      </c>
+      <c r="K42" t="s">
+        <v>332</v>
+      </c>
+      <c r="L42" t="s">
+        <v>333</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>334</v>
+      </c>
+      <c r="O42" t="s">
+        <v>131</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>335</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>336</v>
+      </c>
+      <c r="J43" t="s">
+        <v>337</v>
+      </c>
+      <c r="K43" t="s">
+        <v>338</v>
+      </c>
+      <c r="L43" t="s">
+        <v>339</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>340</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>342</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>343</v>
+      </c>
+      <c r="J44" t="s">
+        <v>344</v>
+      </c>
+      <c r="K44" t="s">
+        <v>345</v>
+      </c>
+      <c r="L44" t="s">
+        <v>346</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>347</v>
+      </c>
+      <c r="O44" t="s">
+        <v>52</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>348</v>
+      </c>
+      <c r="X44" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>351</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>352</v>
+      </c>
+      <c r="J45" t="s">
+        <v>353</v>
+      </c>
+      <c r="K45" t="s">
+        <v>354</v>
+      </c>
+      <c r="L45" t="s">
+        <v>355</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>356</v>
+      </c>
+      <c r="O45" t="s">
+        <v>121</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>357</v>
+      </c>
+      <c r="X45" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>360</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>361</v>
+      </c>
+      <c r="J46" t="s">
+        <v>362</v>
+      </c>
+      <c r="K46" t="s">
+        <v>363</v>
+      </c>
+      <c r="L46" t="s">
+        <v>364</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>365</v>
+      </c>
+      <c r="O46" t="s">
+        <v>131</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>366</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>367</v>
+      </c>
+      <c r="J47" t="s">
+        <v>368</v>
+      </c>
+      <c r="K47" t="s">
+        <v>369</v>
+      </c>
+      <c r="L47" t="s">
+        <v>370</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>371</v>
+      </c>
+      <c r="O47" t="s">
+        <v>131</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>372</v>
+      </c>
+      <c r="X47" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>375</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>376</v>
+      </c>
+      <c r="J48" t="s">
+        <v>377</v>
+      </c>
+      <c r="K48" t="s">
+        <v>378</v>
+      </c>
+      <c r="L48" t="s">
+        <v>379</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>35641</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>380</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>381</v>
+      </c>
+      <c r="J49" t="s">
+        <v>382</v>
+      </c>
+      <c r="K49" t="s">
+        <v>383</v>
+      </c>
+      <c r="L49" t="s">
+        <v>384</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>385</v>
+      </c>
+      <c r="O49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
